--- a/_Out/NFDataCfg/Excel/Skill.xlsx
+++ b/_Out/NFDataCfg/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -454,10 +454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -515,51 +515,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -567,15 +606,53 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -583,84 +660,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -794,13 +794,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,25 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,13 +872,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,19 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,19 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,15 +1047,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1067,6 +1058,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,17 +1112,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,148 +1140,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,55 +1456,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1846,10 +1846,10 @@
   <sheetPr/>
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1977,7 +1977,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>27</v>
@@ -2891,10 +2891,10 @@
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H14" s="24">
         <v>0</v>
@@ -4378,6 +4378,9 @@
         <v>62</v>
       </c>
       <c r="D38" s="32"/>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
       <c r="H38" s="8">
         <v>0</v>
       </c>
@@ -4428,6 +4431,9 @@
       <c r="C39" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
       <c r="H39" s="8">
         <v>0</v>
       </c>
@@ -4479,6 +4485,9 @@
         <v>99</v>
       </c>
       <c r="D40" s="33"/>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
       <c r="H40" s="8">
         <v>0</v>
       </c>
@@ -4530,6 +4539,9 @@
         <v>62</v>
       </c>
       <c r="D41" s="34"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
       <c r="H41" s="9">
         <v>0</v>
       </c>
@@ -4580,6 +4592,9 @@
       <c r="C42" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
       <c r="H42" s="9">
         <v>0</v>
       </c>
@@ -4631,6 +4646,9 @@
         <v>99</v>
       </c>
       <c r="D43" s="35"/>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
       <c r="H43" s="9">
         <v>0</v>
       </c>
@@ -4682,6 +4700,9 @@
         <v>62</v>
       </c>
       <c r="D44" s="36"/>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
       <c r="H44" s="10">
         <v>0</v>
       </c>
@@ -4732,6 +4753,9 @@
       <c r="C45" s="10" t="s">
         <v>86</v>
       </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
       <c r="H45" s="10">
         <v>0</v>
       </c>
@@ -4783,6 +4807,9 @@
         <v>99</v>
       </c>
       <c r="D46" s="37"/>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
       <c r="H46" s="10">
         <v>0</v>
       </c>
@@ -4834,6 +4861,9 @@
         <v>62</v>
       </c>
       <c r="D47" s="38"/>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
@@ -4884,6 +4914,9 @@
       <c r="C48" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
       <c r="H48" s="11">
         <v>0</v>
       </c>
@@ -4935,6 +4968,9 @@
         <v>99</v>
       </c>
       <c r="D49" s="39"/>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
       <c r="H49" s="11">
         <v>0</v>
       </c>
@@ -4986,6 +5022,9 @@
         <v>62</v>
       </c>
       <c r="D50" s="40"/>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
       <c r="H50" s="12">
         <v>0</v>
       </c>
@@ -5036,6 +5075,9 @@
       <c r="C51" s="12" t="s">
         <v>86</v>
       </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
       <c r="H51" s="12">
         <v>0</v>
       </c>
@@ -5087,6 +5129,9 @@
         <v>99</v>
       </c>
       <c r="D52" s="41"/>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
       <c r="H52" s="12">
         <v>0</v>
       </c>
@@ -5138,6 +5183,9 @@
         <v>62</v>
       </c>
       <c r="D53" s="42"/>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
       <c r="H53" s="13">
         <v>0</v>
       </c>
@@ -5188,6 +5236,9 @@
       <c r="C54" s="13" t="s">
         <v>86</v>
       </c>
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
       <c r="H54" s="13">
         <v>0</v>
       </c>
@@ -5239,6 +5290,9 @@
         <v>99</v>
       </c>
       <c r="D55" s="43"/>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
       <c r="H55" s="13">
         <v>0</v>
       </c>
@@ -5290,6 +5344,9 @@
         <v>62</v>
       </c>
       <c r="D56" s="44"/>
+      <c r="G56" s="14">
+        <v>0</v>
+      </c>
       <c r="H56" s="14">
         <v>0</v>
       </c>
@@ -5340,6 +5397,9 @@
       <c r="C57" s="14" t="s">
         <v>86</v>
       </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
       <c r="H57" s="14">
         <v>0</v>
       </c>
@@ -5391,6 +5451,9 @@
         <v>99</v>
       </c>
       <c r="D58" s="45"/>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
       <c r="H58" s="14">
         <v>0</v>
       </c>
@@ -5442,6 +5505,9 @@
         <v>62</v>
       </c>
       <c r="D59" s="46"/>
+      <c r="G59" s="15">
+        <v>0</v>
+      </c>
       <c r="H59" s="15">
         <v>0</v>
       </c>
@@ -5492,6 +5558,9 @@
       <c r="C60" s="15" t="s">
         <v>86</v>
       </c>
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
       <c r="H60" s="15">
         <v>0</v>
       </c>
@@ -5543,6 +5612,9 @@
         <v>99</v>
       </c>
       <c r="D61" s="47"/>
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
       <c r="H61" s="15">
         <v>0</v>
       </c>
